--- a/Data/EC/NIT-8001536710.xlsx
+++ b/Data/EC/NIT-8001536710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEAE0BB-AA39-430B-AD1F-CA19B9763054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6663AC79-E299-42FA-84E8-59692FF1BF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE9F797-5071-4164-BBC7-0F9F2D4B2EC2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78D4BAC3-9CD8-4A0E-9F69-20C828E2BD33}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="119">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,298 +65,301 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1007450773</t>
+  </si>
+  <si>
+    <t>JOSE EPIFANIO PACHECO CASTILLO</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>33101022</t>
   </si>
   <si>
     <t>ROXANA BAHIYYIH DIAZ PALACIOS</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
     <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>1007450773</t>
-  </si>
-  <si>
-    <t>JOSE EPIFANIO PACHECO CASTILLO</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -770,7 +773,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73836806-84A7-B4C4-B3A7-74A04F8CF492}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536C65E1-A22E-4315-0D0B-40AE7B9648FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,8 +1124,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF4C19E-5C6A-49AB-9114-11343394B20F}">
-  <dimension ref="B2:J122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D851FECF-FDFC-4A4E-89DB-25C2D1A469C2}">
+  <dimension ref="B2:J123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1146,7 +1149,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1191,7 +1194,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1223,12 +1226,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6633528</v>
+        <v>6701208</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1239,17 +1242,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1276,13 +1279,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>112</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1299,10 +1302,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>67680</v>
+        <v>31608</v>
       </c>
       <c r="G16" s="18">
-        <v>1692000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1322,10 +1325,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>67680</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1692000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1345,10 +1348,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>67680</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1692000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1368,10 +1371,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>67680</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1692000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1391,10 +1394,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>67680</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1692000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1414,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>67680</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1692000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1437,10 +1440,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>67680</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1692000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1451,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>67680</v>
@@ -1474,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>67680</v>
@@ -1497,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>67680</v>
@@ -1520,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>67680</v>
@@ -1543,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>67680</v>
@@ -1566,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>67680</v>
@@ -1589,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>67680</v>
@@ -1612,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>67680</v>
@@ -1635,13 +1638,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>67680</v>
@@ -1658,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>67680</v>
@@ -1681,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>67680</v>
@@ -1704,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>67680</v>
@@ -1727,13 +1730,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>67680</v>
@@ -1750,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>67680</v>
@@ -1773,13 +1776,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>67680</v>
@@ -1796,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>67680</v>
@@ -1819,13 +1822,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>67680</v>
@@ -1842,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>67680</v>
@@ -1865,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>67680</v>
@@ -1888,13 +1891,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>67680</v>
@@ -1911,13 +1914,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>67680</v>
@@ -1934,13 +1937,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>67680</v>
@@ -1957,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>67680</v>
@@ -1980,13 +1983,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>67680</v>
@@ -2003,13 +2006,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>67680</v>
@@ -2026,13 +2029,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>67680</v>
@@ -2049,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>67680</v>
@@ -2072,13 +2075,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18">
         <v>67680</v>
@@ -2095,13 +2098,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F51" s="18">
         <v>67680</v>
@@ -2118,13 +2121,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F52" s="18">
         <v>67680</v>
@@ -2141,13 +2144,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F53" s="18">
         <v>67680</v>
@@ -2164,13 +2167,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F54" s="18">
         <v>67680</v>
@@ -2187,13 +2190,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F55" s="18">
         <v>67680</v>
@@ -2210,13 +2213,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F56" s="18">
         <v>67680</v>
@@ -2233,13 +2236,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F57" s="18">
         <v>67680</v>
@@ -2256,13 +2259,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
         <v>67680</v>
@@ -2279,13 +2282,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F59" s="18">
         <v>67680</v>
@@ -2302,13 +2305,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F60" s="18">
         <v>67680</v>
@@ -2325,13 +2328,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F61" s="18">
         <v>67680</v>
@@ -2348,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F62" s="18">
         <v>67680</v>
@@ -2371,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F63" s="18">
         <v>67680</v>
@@ -2394,13 +2397,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F64" s="18">
         <v>67680</v>
@@ -2417,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F65" s="18">
         <v>67680</v>
@@ -2440,13 +2443,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F66" s="18">
         <v>67680</v>
@@ -2463,13 +2466,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F67" s="18">
         <v>67680</v>
@@ -2486,13 +2489,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F68" s="18">
         <v>67680</v>
@@ -2509,13 +2512,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
         <v>67680</v>
@@ -2532,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F70" s="18">
         <v>67680</v>
@@ -2555,13 +2558,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F71" s="18">
         <v>67680</v>
@@ -2578,13 +2581,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F72" s="18">
         <v>67680</v>
@@ -2601,13 +2604,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F73" s="18">
         <v>67680</v>
@@ -2624,13 +2627,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F74" s="18">
         <v>67680</v>
@@ -2647,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F75" s="18">
         <v>67680</v>
@@ -2670,13 +2673,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F76" s="18">
         <v>67680</v>
@@ -2693,19 +2696,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>67680</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>1692000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2716,13 +2719,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F78" s="18">
         <v>67680</v>
@@ -2739,19 +2742,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>67680</v>
       </c>
       <c r="G79" s="18">
-        <v>1000000</v>
+        <v>1692000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2762,13 +2765,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F80" s="18">
         <v>67680</v>
@@ -2785,13 +2788,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F81" s="18">
         <v>67680</v>
@@ -2808,19 +2811,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>67680</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>1692000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2831,19 +2834,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D83" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="F83" s="18">
-        <v>40000</v>
+        <v>67680</v>
       </c>
       <c r="G83" s="18">
-        <v>1000000</v>
+        <v>1692000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2854,13 +2857,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F84" s="18">
         <v>67680</v>
@@ -2877,19 +2880,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>67680</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>1692000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2900,13 +2903,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F86" s="18">
         <v>67680</v>
@@ -2923,19 +2926,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>67680</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>1692000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2946,13 +2949,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F88" s="18">
         <v>67680</v>
@@ -2969,13 +2972,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F89" s="18">
         <v>67680</v>
@@ -2992,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>80</v>
       </c>
       <c r="F90" s="18">
-        <v>31608</v>
+        <v>67680</v>
       </c>
       <c r="G90" s="18">
-        <v>1000000</v>
+        <v>1692000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3015,10 +3018,10 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>81</v>
@@ -3038,10 +3041,10 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>82</v>
@@ -3061,10 +3064,10 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>83</v>
@@ -3084,10 +3087,10 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>84</v>
@@ -3107,10 +3110,10 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>85</v>
@@ -3130,10 +3133,10 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>86</v>
@@ -3153,10 +3156,10 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>87</v>
@@ -3176,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>88</v>
@@ -3199,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>89</v>
@@ -3222,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>90</v>
@@ -3245,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>91</v>
@@ -3268,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>92</v>
@@ -3291,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>93</v>
@@ -3314,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>94</v>
@@ -3337,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>95</v>
@@ -3360,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>96</v>
@@ -3383,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>97</v>
@@ -3406,10 +3409,10 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>98</v>
@@ -3429,10 +3432,10 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>99</v>
@@ -3452,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>100</v>
@@ -3475,10 +3478,10 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>101</v>
@@ -3498,10 +3501,10 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>102</v>
@@ -3521,10 +3524,10 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>103</v>
@@ -3544,10 +3547,10 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>104</v>
@@ -3567,10 +3570,10 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>105</v>
@@ -3586,42 +3589,54 @@
       <c r="J115" s="20"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="22" t="s">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F116" s="24">
-        <v>67680</v>
-      </c>
-      <c r="G116" s="24">
-        <v>1692000</v>
-      </c>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="F116" s="18">
+        <v>67680</v>
+      </c>
+      <c r="G116" s="18">
+        <v>1692000</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="24">
+        <v>67680</v>
+      </c>
+      <c r="G117" s="24">
+        <v>1692000</v>
+      </c>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="26"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C122" s="32"/>
       <c r="H122" s="1" t="s">
@@ -3630,12 +3645,23 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="H123" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B123:C123"/>
     <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H123:J123"/>
     <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H121:J121"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
